--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_サンプル.xlsx
@@ -3099,7 +3099,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -5093,6 +5093,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5182,12 +5188,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5678,20 +5678,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1990725" y="2324100"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2143125" y="2476500"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5709,27 +5709,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -5737,27 +5725,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -5876,16 +5852,16 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20636203">
           <a:off x="1981200" y="1390650"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
@@ -5904,27 +5880,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -5932,27 +5896,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -5971,16 +5923,16 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20636203">
           <a:off x="1952625" y="2286000"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
@@ -5999,27 +5951,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6027,27 +5967,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6066,16 +5994,16 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20636203">
           <a:off x="1419225" y="2181225"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
@@ -6094,27 +6022,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6122,27 +6038,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8036,7 +7940,7 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>リポジトリ内の「外部インターフェース設計関連 」を参照。</a:t>
+            <a:t>リポジトリ内の「外部インタフェース設計関連 」を参照。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -8109,16 +8013,16 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20636203">
           <a:off x="1647825" y="2686050"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
@@ -8137,27 +8041,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8165,27 +8057,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8547,16 +8427,16 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20636203">
           <a:off x="1419225" y="2190750"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
@@ -8575,27 +8455,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8603,27 +8471,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8867,20 +8723,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2124075" y="552450"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2371725" y="720788"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8898,27 +8754,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8926,27 +8770,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9723,17 +9555,17 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20636203">
           <a:off x="2600325" y="2438400"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
@@ -9752,27 +9584,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9780,27 +9600,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9896,19 +9704,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2495550" y="571500"/>
+        <a:xfrm rot="21180928">
+          <a:off x="2647950" y="723900"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9926,27 +9734,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9954,27 +9750,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -10070,19 +9854,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2590800" y="219075"/>
+        <a:xfrm rot="21290473">
+          <a:off x="2743200" y="371475"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10100,27 +9884,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -10128,27 +9900,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -10539,12 +10299,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="74"/>
@@ -10556,29 +10316,29 @@
       <c r="Y1" s="74"/>
       <c r="Z1" s="74"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1"/>
+    <row r="22" spans="2:19" ht="17.25" customHeight="1">
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -10596,7 +10356,7 @@
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" ht="15.95" customHeight="1">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -10607,7 +10367,7 @@
       <c r="K23" s="77"/>
       <c r="L23" s="77"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19" ht="18" customHeight="1">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -10627,7 +10387,7 @@
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -10639,7 +10399,7 @@
       <c r="K25" s="205"/>
       <c r="L25" s="77"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -10648,7 +10408,7 @@
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -10657,7 +10417,7 @@
       <c r="K27" s="77"/>
       <c r="L27" s="77"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" ht="15" customHeight="1">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="77"/>
@@ -10665,7 +10425,7 @@
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -10674,7 +10434,7 @@
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -10683,7 +10443,7 @@
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -10692,7 +10452,7 @@
       <c r="K31" s="77"/>
       <c r="L31" s="77"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="77"/>
@@ -10707,7 +10467,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75" customHeight="1">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="77"/>
@@ -10721,7 +10481,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1">
       <c r="I34" s="77"/>
       <c r="J34" s="79"/>
       <c r="K34" s="77"/>
@@ -10731,509 +10491,509 @@
       <c r="R34" s="154"/>
       <c r="S34" s="154"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="P35" s="11"/>
       <c r="Q35" s="154"/>
       <c r="R35" s="154"/>
       <c r="S35" s="154"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="P36" s="11"/>
       <c r="Q36" s="154"/>
       <c r="R36" s="154"/>
       <c r="S36" s="152"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="P37" s="11"/>
       <c r="Q37" s="151"/>
       <c r="R37" s="151"/>
       <c r="S37" s="151"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="P38" s="11"/>
       <c r="Q38" s="151"/>
       <c r="R38" s="151"/>
       <c r="S38" s="151"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="P39" s="11"/>
       <c r="Q39" s="151"/>
       <c r="R39" s="151"/>
       <c r="S39" s="151"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -11258,12 +11018,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="144" customFormat="1" ht="11.25">
       <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
@@ -11312,14 +11072,14 @@
       <c r="AD1" s="225"/>
       <c r="AE1" s="225"/>
       <c r="AF1" s="226"/>
-      <c r="AG1" s="413">
+      <c r="AG1" s="415">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="414"/>
-      <c r="AI1" s="415"/>
-    </row>
-    <row r="2" spans="1:35" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH1" s="416"/>
+      <c r="AI1" s="417"/>
+    </row>
+    <row r="2" spans="1:35" s="144" customFormat="1" ht="11.25">
       <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
@@ -11362,14 +11122,14 @@
       <c r="AD2" s="225"/>
       <c r="AE2" s="225"/>
       <c r="AF2" s="226"/>
-      <c r="AG2" s="413" t="str">
+      <c r="AG2" s="415" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="414"/>
-      <c r="AI2" s="415"/>
-    </row>
-    <row r="3" spans="1:35" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH2" s="416"/>
+      <c r="AI2" s="417"/>
+    </row>
+    <row r="3" spans="1:35" s="144" customFormat="1" ht="11.25">
       <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
@@ -11410,15 +11170,15 @@
       <c r="AD3" s="225"/>
       <c r="AE3" s="225"/>
       <c r="AF3" s="226"/>
-      <c r="AG3" s="413" t="str">
+      <c r="AG3" s="415" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="414"/>
-      <c r="AI3" s="415"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="416"/>
+      <c r="AI3" s="417"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1"/>
+    <row r="5" spans="1:35" ht="15" customHeight="1">
       <c r="A5" s="145" t="s">
         <v>258</v>
       </c>
@@ -11426,13 +11186,13 @@
       <c r="C5" s="145"/>
       <c r="D5" s="145"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="15" customHeight="1">
       <c r="A6" s="145"/>
       <c r="B6" s="145"/>
       <c r="C6" s="145"/>
       <c r="D6" s="145"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="82"/>
       <c r="B7" s="94" t="s">
         <v>278</v>
@@ -11440,248 +11200,248 @@
       <c r="C7" s="145"/>
       <c r="D7" s="145"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="B9" s="143" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="424" t="s">
+    <row r="10" spans="1:35" ht="30" customHeight="1" thickBot="1">
+      <c r="B10" s="426" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="425"/>
-      <c r="D10" s="425"/>
-      <c r="E10" s="425"/>
-      <c r="F10" s="426"/>
-      <c r="G10" s="436" t="s">
+      <c r="C10" s="427"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="427"/>
+      <c r="F10" s="428"/>
+      <c r="G10" s="438" t="s">
         <v>255</v>
       </c>
-      <c r="H10" s="425"/>
-      <c r="I10" s="425"/>
-      <c r="J10" s="425"/>
-      <c r="K10" s="426"/>
-      <c r="L10" s="424" t="s">
+      <c r="H10" s="427"/>
+      <c r="I10" s="427"/>
+      <c r="J10" s="427"/>
+      <c r="K10" s="428"/>
+      <c r="L10" s="426" t="s">
         <v>254</v>
       </c>
-      <c r="M10" s="425"/>
-      <c r="N10" s="425"/>
-      <c r="O10" s="425"/>
-      <c r="P10" s="426"/>
-      <c r="Q10" s="424" t="s">
+      <c r="M10" s="427"/>
+      <c r="N10" s="427"/>
+      <c r="O10" s="427"/>
+      <c r="P10" s="428"/>
+      <c r="Q10" s="426" t="s">
         <v>253</v>
       </c>
-      <c r="R10" s="425"/>
-      <c r="S10" s="425"/>
-      <c r="T10" s="425"/>
-      <c r="U10" s="426"/>
-      <c r="V10" s="424" t="s">
+      <c r="R10" s="427"/>
+      <c r="S10" s="427"/>
+      <c r="T10" s="427"/>
+      <c r="U10" s="428"/>
+      <c r="V10" s="426" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="425"/>
-      <c r="X10" s="425"/>
-      <c r="Y10" s="425"/>
-      <c r="Z10" s="426"/>
-      <c r="AA10" s="424" t="s">
+      <c r="W10" s="427"/>
+      <c r="X10" s="427"/>
+      <c r="Y10" s="427"/>
+      <c r="Z10" s="428"/>
+      <c r="AA10" s="426" t="s">
         <v>251</v>
       </c>
-      <c r="AB10" s="425"/>
-      <c r="AC10" s="425"/>
-      <c r="AD10" s="425"/>
-      <c r="AE10" s="425"/>
-      <c r="AF10" s="425"/>
-      <c r="AG10" s="425"/>
-      <c r="AH10" s="426"/>
-    </row>
-    <row r="11" spans="1:35" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="427" t="s">
+      <c r="AB10" s="427"/>
+      <c r="AC10" s="427"/>
+      <c r="AD10" s="427"/>
+      <c r="AE10" s="427"/>
+      <c r="AF10" s="427"/>
+      <c r="AG10" s="427"/>
+      <c r="AH10" s="428"/>
+    </row>
+    <row r="11" spans="1:35" ht="30" customHeight="1" thickTop="1">
+      <c r="B11" s="429" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="428"/>
-      <c r="D11" s="428"/>
-      <c r="E11" s="428"/>
-      <c r="F11" s="429"/>
-      <c r="G11" s="427" t="s">
+      <c r="C11" s="430"/>
+      <c r="D11" s="430"/>
+      <c r="E11" s="430"/>
+      <c r="F11" s="431"/>
+      <c r="G11" s="429" t="s">
         <v>250</v>
       </c>
-      <c r="H11" s="428"/>
-      <c r="I11" s="428"/>
-      <c r="J11" s="428"/>
-      <c r="K11" s="429"/>
-      <c r="L11" s="430">
+      <c r="H11" s="430"/>
+      <c r="I11" s="430"/>
+      <c r="J11" s="430"/>
+      <c r="K11" s="431"/>
+      <c r="L11" s="432">
         <v>123</v>
       </c>
-      <c r="M11" s="431"/>
-      <c r="N11" s="431"/>
-      <c r="O11" s="431"/>
-      <c r="P11" s="432"/>
-      <c r="Q11" s="427">
+      <c r="M11" s="433"/>
+      <c r="N11" s="433"/>
+      <c r="O11" s="433"/>
+      <c r="P11" s="434"/>
+      <c r="Q11" s="429">
         <v>123</v>
       </c>
-      <c r="R11" s="428"/>
-      <c r="S11" s="428"/>
-      <c r="T11" s="428"/>
-      <c r="U11" s="429"/>
-      <c r="V11" s="427" t="s">
+      <c r="R11" s="430"/>
+      <c r="S11" s="430"/>
+      <c r="T11" s="430"/>
+      <c r="U11" s="431"/>
+      <c r="V11" s="429" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="428"/>
-      <c r="X11" s="428"/>
-      <c r="Y11" s="428"/>
-      <c r="Z11" s="429"/>
-      <c r="AA11" s="433" t="s">
+      <c r="W11" s="430"/>
+      <c r="X11" s="430"/>
+      <c r="Y11" s="430"/>
+      <c r="Z11" s="431"/>
+      <c r="AA11" s="435" t="s">
         <v>248</v>
       </c>
-      <c r="AB11" s="434"/>
-      <c r="AC11" s="434"/>
-      <c r="AD11" s="434"/>
-      <c r="AE11" s="434"/>
-      <c r="AF11" s="434"/>
-      <c r="AG11" s="434"/>
-      <c r="AH11" s="435"/>
-    </row>
-    <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="440" t="s">
+      <c r="AB11" s="436"/>
+      <c r="AC11" s="436"/>
+      <c r="AD11" s="436"/>
+      <c r="AE11" s="436"/>
+      <c r="AF11" s="436"/>
+      <c r="AG11" s="436"/>
+      <c r="AH11" s="437"/>
+    </row>
+    <row r="12" spans="1:35" ht="30" customHeight="1">
+      <c r="B12" s="442" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="441"/>
-      <c r="D12" s="441"/>
-      <c r="E12" s="441"/>
-      <c r="F12" s="442"/>
-      <c r="G12" s="440" t="s">
+      <c r="C12" s="443"/>
+      <c r="D12" s="443"/>
+      <c r="E12" s="443"/>
+      <c r="F12" s="444"/>
+      <c r="G12" s="442" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="441"/>
-      <c r="I12" s="441"/>
-      <c r="J12" s="441"/>
-      <c r="K12" s="442"/>
-      <c r="L12" s="440" t="s">
+      <c r="H12" s="443"/>
+      <c r="I12" s="443"/>
+      <c r="J12" s="443"/>
+      <c r="K12" s="444"/>
+      <c r="L12" s="442" t="s">
         <v>245</v>
       </c>
-      <c r="M12" s="441"/>
-      <c r="N12" s="441"/>
-      <c r="O12" s="441"/>
-      <c r="P12" s="442"/>
-      <c r="Q12" s="437"/>
-      <c r="R12" s="438"/>
-      <c r="S12" s="438"/>
-      <c r="T12" s="438"/>
-      <c r="U12" s="439"/>
-      <c r="V12" s="440" t="s">
+      <c r="M12" s="443"/>
+      <c r="N12" s="443"/>
+      <c r="O12" s="443"/>
+      <c r="P12" s="444"/>
+      <c r="Q12" s="439"/>
+      <c r="R12" s="440"/>
+      <c r="S12" s="440"/>
+      <c r="T12" s="440"/>
+      <c r="U12" s="441"/>
+      <c r="V12" s="442" t="s">
         <v>244</v>
       </c>
-      <c r="W12" s="441"/>
-      <c r="X12" s="441"/>
-      <c r="Y12" s="441"/>
-      <c r="Z12" s="442"/>
-      <c r="AA12" s="437"/>
-      <c r="AB12" s="438"/>
-      <c r="AC12" s="438"/>
-      <c r="AD12" s="438"/>
-      <c r="AE12" s="438"/>
-      <c r="AF12" s="438"/>
-      <c r="AG12" s="438"/>
-      <c r="AH12" s="439"/>
-    </row>
-    <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="440" t="s">
+      <c r="W12" s="443"/>
+      <c r="X12" s="443"/>
+      <c r="Y12" s="443"/>
+      <c r="Z12" s="444"/>
+      <c r="AA12" s="439"/>
+      <c r="AB12" s="440"/>
+      <c r="AC12" s="440"/>
+      <c r="AD12" s="440"/>
+      <c r="AE12" s="440"/>
+      <c r="AF12" s="440"/>
+      <c r="AG12" s="440"/>
+      <c r="AH12" s="441"/>
+    </row>
+    <row r="13" spans="1:35" ht="30" customHeight="1">
+      <c r="B13" s="442" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="441"/>
-      <c r="D13" s="441"/>
-      <c r="E13" s="441"/>
-      <c r="F13" s="442"/>
-      <c r="G13" s="440" t="s">
+      <c r="C13" s="443"/>
+      <c r="D13" s="443"/>
+      <c r="E13" s="443"/>
+      <c r="F13" s="444"/>
+      <c r="G13" s="442" t="s">
         <v>242</v>
       </c>
-      <c r="H13" s="441"/>
-      <c r="I13" s="441"/>
-      <c r="J13" s="441"/>
-      <c r="K13" s="442"/>
-      <c r="L13" s="440" t="s">
+      <c r="H13" s="443"/>
+      <c r="I13" s="443"/>
+      <c r="J13" s="443"/>
+      <c r="K13" s="444"/>
+      <c r="L13" s="442" t="s">
         <v>241</v>
       </c>
-      <c r="M13" s="441"/>
-      <c r="N13" s="441"/>
-      <c r="O13" s="441"/>
-      <c r="P13" s="442"/>
-      <c r="Q13" s="437"/>
-      <c r="R13" s="438"/>
-      <c r="S13" s="438"/>
-      <c r="T13" s="438"/>
-      <c r="U13" s="439"/>
-      <c r="V13" s="440" t="s">
+      <c r="M13" s="443"/>
+      <c r="N13" s="443"/>
+      <c r="O13" s="443"/>
+      <c r="P13" s="444"/>
+      <c r="Q13" s="439"/>
+      <c r="R13" s="440"/>
+      <c r="S13" s="440"/>
+      <c r="T13" s="440"/>
+      <c r="U13" s="441"/>
+      <c r="V13" s="442" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="441"/>
-      <c r="X13" s="441"/>
-      <c r="Y13" s="441"/>
-      <c r="Z13" s="442"/>
-      <c r="AA13" s="437"/>
-      <c r="AB13" s="438"/>
-      <c r="AC13" s="438"/>
-      <c r="AD13" s="438"/>
-      <c r="AE13" s="438"/>
-      <c r="AF13" s="438"/>
-      <c r="AG13" s="438"/>
-      <c r="AH13" s="439"/>
-    </row>
-    <row r="14" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="440" t="s">
+      <c r="W13" s="443"/>
+      <c r="X13" s="443"/>
+      <c r="Y13" s="443"/>
+      <c r="Z13" s="444"/>
+      <c r="AA13" s="439"/>
+      <c r="AB13" s="440"/>
+      <c r="AC13" s="440"/>
+      <c r="AD13" s="440"/>
+      <c r="AE13" s="440"/>
+      <c r="AF13" s="440"/>
+      <c r="AG13" s="440"/>
+      <c r="AH13" s="441"/>
+    </row>
+    <row r="14" spans="1:35" ht="30" customHeight="1">
+      <c r="B14" s="442" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="441"/>
-      <c r="D14" s="441"/>
-      <c r="E14" s="441"/>
-      <c r="F14" s="442"/>
-      <c r="G14" s="440" t="s">
+      <c r="C14" s="443"/>
+      <c r="D14" s="443"/>
+      <c r="E14" s="443"/>
+      <c r="F14" s="444"/>
+      <c r="G14" s="442" t="s">
         <v>238</v>
       </c>
-      <c r="H14" s="441"/>
-      <c r="I14" s="441"/>
-      <c r="J14" s="441"/>
-      <c r="K14" s="442"/>
-      <c r="L14" s="437"/>
-      <c r="M14" s="438"/>
-      <c r="N14" s="438"/>
-      <c r="O14" s="438"/>
-      <c r="P14" s="439"/>
-      <c r="Q14" s="437"/>
-      <c r="R14" s="438"/>
-      <c r="S14" s="438"/>
-      <c r="T14" s="438"/>
-      <c r="U14" s="439"/>
-      <c r="V14" s="437"/>
-      <c r="W14" s="438"/>
-      <c r="X14" s="438"/>
-      <c r="Y14" s="438"/>
-      <c r="Z14" s="439"/>
-      <c r="AA14" s="440" t="s">
+      <c r="H14" s="443"/>
+      <c r="I14" s="443"/>
+      <c r="J14" s="443"/>
+      <c r="K14" s="444"/>
+      <c r="L14" s="439"/>
+      <c r="M14" s="440"/>
+      <c r="N14" s="440"/>
+      <c r="O14" s="440"/>
+      <c r="P14" s="441"/>
+      <c r="Q14" s="439"/>
+      <c r="R14" s="440"/>
+      <c r="S14" s="440"/>
+      <c r="T14" s="440"/>
+      <c r="U14" s="441"/>
+      <c r="V14" s="439"/>
+      <c r="W14" s="440"/>
+      <c r="X14" s="440"/>
+      <c r="Y14" s="440"/>
+      <c r="Z14" s="441"/>
+      <c r="AA14" s="442" t="s">
         <v>237</v>
       </c>
-      <c r="AB14" s="441"/>
-      <c r="AC14" s="441"/>
-      <c r="AD14" s="441"/>
-      <c r="AE14" s="441"/>
-      <c r="AF14" s="441"/>
-      <c r="AG14" s="441"/>
-      <c r="AH14" s="442"/>
-    </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB14" s="443"/>
+      <c r="AC14" s="443"/>
+      <c r="AD14" s="443"/>
+      <c r="AE14" s="443"/>
+      <c r="AF14" s="443"/>
+      <c r="AG14" s="443"/>
+      <c r="AH14" s="444"/>
+    </row>
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="B16" s="148" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" ht="15" customHeight="1">
       <c r="B17" s="149" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="15" customHeight="1">
       <c r="B18" s="148" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="15" customHeight="1">
       <c r="B19" s="148" t="s">
         <v>233</v>
       </c>
@@ -11755,120 +11515,120 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="56" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="56" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="60"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="57" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="61" t="s">
         <v>60</v>
       </c>
@@ -11892,7 +11652,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="73" customWidth="1"/>
@@ -11901,7 +11661,7 @@
     <col min="36" max="16384" width="4.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" s="66" customFormat="1" ht="11.25">
       <c r="A1" s="241" t="s">
         <v>67</v>
       </c>
@@ -11957,7 +11717,7 @@
       <c r="AM1" s="67"/>
       <c r="AN1" s="68"/>
     </row>
-    <row r="2" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" s="66" customFormat="1" ht="11.25">
       <c r="A2" s="241" t="s">
         <v>68</v>
       </c>
@@ -12010,7 +11770,7 @@
       <c r="AM2" s="67"/>
       <c r="AN2" s="67"/>
     </row>
-    <row r="3" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" s="66" customFormat="1" ht="11.25">
       <c r="A3" s="241" t="s">
         <v>69</v>
       </c>
@@ -12055,7 +11815,7 @@
       <c r="AM3" s="67"/>
       <c r="AN3" s="67"/>
     </row>
-    <row r="4" spans="1:40" s="69" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" s="69" customFormat="1" ht="19.5" customHeight="1">
       <c r="AB4" s="70"/>
       <c r="AC4" s="70"/>
       <c r="AD4" s="71"/>
@@ -12066,7 +11826,7 @@
       <c r="AI4" s="70"/>
       <c r="AJ4" s="70"/>
     </row>
-    <row r="5" spans="1:40" s="69" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="69" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
@@ -12080,7 +11840,7 @@
       <c r="AI5" s="70"/>
       <c r="AJ5" s="70"/>
     </row>
-    <row r="6" spans="1:40" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="69" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="2"/>
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
@@ -12092,7 +11852,7 @@
       <c r="AI6" s="70"/>
       <c r="AJ6" s="70"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="62" t="s">
         <v>72</v>
       </c>
@@ -12144,7 +11904,7 @@
       <c r="AI7" s="238"/>
       <c r="AJ7" s="63"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="155">
         <v>1</v>
       </c>
@@ -12196,7 +11956,7 @@
       <c r="AI8" s="267"/>
       <c r="AJ8" s="63"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="156"/>
       <c r="B9" s="206"/>
       <c r="C9" s="207"/>
@@ -12234,7 +11994,7 @@
       <c r="AI9" s="264"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="156"/>
       <c r="B10" s="206"/>
       <c r="C10" s="207"/>
@@ -12271,7 +12031,7 @@
       <c r="AH10" s="263"/>
       <c r="AI10" s="264"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="156"/>
       <c r="B11" s="206"/>
       <c r="C11" s="207"/>
@@ -12308,7 +12068,7 @@
       <c r="AH11" s="263"/>
       <c r="AI11" s="264"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="156"/>
       <c r="B12" s="206"/>
       <c r="C12" s="207"/>
@@ -12345,7 +12105,7 @@
       <c r="AH12" s="263"/>
       <c r="AI12" s="264"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="156"/>
       <c r="B13" s="206"/>
       <c r="C13" s="207"/>
@@ -12382,7 +12142,7 @@
       <c r="AH13" s="263"/>
       <c r="AI13" s="264"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="156"/>
       <c r="B14" s="206"/>
       <c r="C14" s="207"/>
@@ -12419,7 +12179,7 @@
       <c r="AH14" s="263"/>
       <c r="AI14" s="264"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="156"/>
       <c r="B15" s="206"/>
       <c r="C15" s="207"/>
@@ -12456,7 +12216,7 @@
       <c r="AH15" s="263"/>
       <c r="AI15" s="264"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="156"/>
       <c r="B16" s="206"/>
       <c r="C16" s="207"/>
@@ -12493,7 +12253,7 @@
       <c r="AH16" s="263"/>
       <c r="AI16" s="264"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="156"/>
       <c r="B17" s="206"/>
       <c r="C17" s="207"/>
@@ -12530,7 +12290,7 @@
       <c r="AH17" s="263"/>
       <c r="AI17" s="264"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="156"/>
       <c r="B18" s="206"/>
       <c r="C18" s="207"/>
@@ -12567,7 +12327,7 @@
       <c r="AH18" s="263"/>
       <c r="AI18" s="264"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="156"/>
       <c r="B19" s="206"/>
       <c r="C19" s="207"/>
@@ -12604,7 +12364,7 @@
       <c r="AH19" s="263"/>
       <c r="AI19" s="264"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="156"/>
       <c r="B20" s="206"/>
       <c r="C20" s="207"/>
@@ -12641,7 +12401,7 @@
       <c r="AH20" s="263"/>
       <c r="AI20" s="264"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="156"/>
       <c r="B21" s="206"/>
       <c r="C21" s="207"/>
@@ -12678,7 +12438,7 @@
       <c r="AH21" s="263"/>
       <c r="AI21" s="264"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="156"/>
       <c r="B22" s="206"/>
       <c r="C22" s="207"/>
@@ -12715,7 +12475,7 @@
       <c r="AH22" s="263"/>
       <c r="AI22" s="264"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="156"/>
       <c r="B23" s="206"/>
       <c r="C23" s="207"/>
@@ -12752,7 +12512,7 @@
       <c r="AH23" s="263"/>
       <c r="AI23" s="264"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="156"/>
       <c r="B24" s="206"/>
       <c r="C24" s="207"/>
@@ -12789,7 +12549,7 @@
       <c r="AH24" s="263"/>
       <c r="AI24" s="264"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="156"/>
       <c r="B25" s="206"/>
       <c r="C25" s="207"/>
@@ -12826,7 +12586,7 @@
       <c r="AH25" s="263"/>
       <c r="AI25" s="264"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="156"/>
       <c r="B26" s="206"/>
       <c r="C26" s="207"/>
@@ -12863,7 +12623,7 @@
       <c r="AH26" s="263"/>
       <c r="AI26" s="264"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="156"/>
       <c r="B27" s="206"/>
       <c r="C27" s="207"/>
@@ -12900,7 +12660,7 @@
       <c r="AH27" s="263"/>
       <c r="AI27" s="264"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="156"/>
       <c r="B28" s="206"/>
       <c r="C28" s="207"/>
@@ -12937,7 +12697,7 @@
       <c r="AH28" s="263"/>
       <c r="AI28" s="264"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="156"/>
       <c r="B29" s="206"/>
       <c r="C29" s="207"/>
@@ -12974,7 +12734,7 @@
       <c r="AH29" s="263"/>
       <c r="AI29" s="264"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="156"/>
       <c r="B30" s="206"/>
       <c r="C30" s="207"/>
@@ -13011,7 +12771,7 @@
       <c r="AH30" s="263"/>
       <c r="AI30" s="264"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="156"/>
       <c r="B31" s="206"/>
       <c r="C31" s="207"/>
@@ -13048,7 +12808,7 @@
       <c r="AH31" s="263"/>
       <c r="AI31" s="264"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="156"/>
       <c r="B32" s="206"/>
       <c r="C32" s="207"/>
@@ -13085,7 +12845,7 @@
       <c r="AH32" s="263"/>
       <c r="AI32" s="264"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="156"/>
       <c r="B33" s="206"/>
       <c r="C33" s="207"/>
@@ -13324,7 +13084,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="97" customWidth="1"/>
@@ -13459,7 +13219,7 @@
     <col min="16163" max="16384" width="4.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="91" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="91" customFormat="1" ht="11.25">
       <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
@@ -13515,7 +13275,7 @@
       <c r="AH1" s="269"/>
       <c r="AI1" s="270"/>
     </row>
-    <row r="2" spans="1:35" s="91" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="91" customFormat="1" ht="11.25">
       <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
@@ -13565,7 +13325,7 @@
       <c r="AH2" s="269"/>
       <c r="AI2" s="270"/>
     </row>
-    <row r="3" spans="1:35" s="91" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="91" customFormat="1" ht="11.25">
       <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
@@ -13613,20 +13373,20 @@
       <c r="AH3" s="269"/>
       <c r="AI3" s="270"/>
     </row>
-    <row r="4" spans="1:35" s="69" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" s="69" customFormat="1" ht="19.5" customHeight="1">
       <c r="AC4" s="157"/>
     </row>
-    <row r="5" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1">
       <c r="Q5" s="158" t="s">
         <v>87</v>
       </c>
       <c r="AC5" s="157"/>
     </row>
-    <row r="6" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="158"/>
       <c r="AC6" s="157"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="159"/>
       <c r="B7" s="160" t="s">
         <v>273</v>
@@ -13665,7 +13425,7 @@
       <c r="AH7" s="163"/>
       <c r="AI7" s="164"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="159"/>
       <c r="B8" s="160"/>
       <c r="C8" s="160"/>
@@ -13702,7 +13462,7 @@
       <c r="AH8" s="166"/>
       <c r="AI8" s="164"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="159"/>
       <c r="B9" s="160" t="s">
         <v>88</v>
@@ -13741,7 +13501,7 @@
       <c r="AH9" s="167"/>
       <c r="AI9" s="159"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="159"/>
       <c r="B10" s="144"/>
       <c r="C10" s="144"/>
@@ -13778,7 +13538,7 @@
       <c r="AH10" s="163"/>
       <c r="AI10" s="164"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="159"/>
       <c r="B11" s="168" t="s">
         <v>267</v>
@@ -13817,7 +13577,7 @@
       <c r="AH11" s="163"/>
       <c r="AI11" s="164"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="159"/>
       <c r="B12" s="144"/>
       <c r="C12" s="160" t="s">
@@ -13856,7 +13616,7 @@
       <c r="AH12" s="163"/>
       <c r="AI12" s="164"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="159"/>
       <c r="B13" s="169"/>
       <c r="C13" s="170" t="s">
@@ -13895,7 +13655,7 @@
       <c r="AH13" s="163"/>
       <c r="AI13" s="164"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="159"/>
       <c r="B14" s="164"/>
       <c r="C14" s="160" t="s">
@@ -13934,7 +13694,7 @@
       <c r="AH14" s="163"/>
       <c r="AI14" s="164"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="159"/>
       <c r="B15" s="160"/>
       <c r="C15" s="170" t="s">
@@ -13973,7 +13733,7 @@
       <c r="AH15" s="163"/>
       <c r="AI15" s="164"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="159"/>
       <c r="B16" s="160"/>
       <c r="C16" s="160"/>
@@ -14010,7 +13770,7 @@
       <c r="AH16" s="163"/>
       <c r="AI16" s="164"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="159"/>
       <c r="B17" s="69"/>
       <c r="C17" s="160"/>
@@ -14047,7 +13807,7 @@
       <c r="AH17" s="163"/>
       <c r="AI17" s="164"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="159"/>
       <c r="B18" s="69"/>
       <c r="C18" s="159"/>
@@ -14084,7 +13844,7 @@
       <c r="AH18" s="163"/>
       <c r="AI18" s="164"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="159"/>
       <c r="B19" s="69"/>
       <c r="C19" s="159"/>
@@ -14121,7 +13881,7 @@
       <c r="AH19" s="163"/>
       <c r="AI19" s="164"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="159"/>
       <c r="B20" s="69"/>
       <c r="C20" s="159"/>
@@ -14158,7 +13918,7 @@
       <c r="AH20" s="163"/>
       <c r="AI20" s="164"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="159"/>
       <c r="B21" s="69"/>
       <c r="C21" s="159"/>
@@ -14195,7 +13955,7 @@
       <c r="AH21" s="163"/>
       <c r="AI21" s="164"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="159"/>
       <c r="B22" s="69"/>
       <c r="C22" s="159"/>
@@ -14232,7 +13992,7 @@
       <c r="AH22" s="163"/>
       <c r="AI22" s="164"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="159"/>
       <c r="B23" s="172"/>
       <c r="C23" s="144"/>
@@ -14269,7 +14029,7 @@
       <c r="AH23" s="163"/>
       <c r="AI23" s="164"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="159"/>
       <c r="B24" s="69"/>
       <c r="C24" s="159"/>
@@ -14306,7 +14066,7 @@
       <c r="AH24" s="163"/>
       <c r="AI24" s="164"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="159"/>
       <c r="B25" s="69"/>
       <c r="C25" s="159"/>
@@ -14343,7 +14103,7 @@
       <c r="AH25" s="163"/>
       <c r="AI25" s="164"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="159"/>
       <c r="B26" s="69"/>
       <c r="C26" s="159"/>
@@ -14380,7 +14140,7 @@
       <c r="AH26" s="163"/>
       <c r="AI26" s="164"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="159"/>
       <c r="B27" s="69"/>
       <c r="C27" s="159"/>
@@ -14417,7 +14177,7 @@
       <c r="AH27" s="163"/>
       <c r="AI27" s="164"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="159"/>
       <c r="B28" s="69"/>
       <c r="C28" s="159"/>
@@ -14454,7 +14214,7 @@
       <c r="AH28" s="163"/>
       <c r="AI28" s="164"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="159"/>
       <c r="B29" s="69"/>
       <c r="C29" s="159"/>
@@ -14491,7 +14251,7 @@
       <c r="AH29" s="163"/>
       <c r="AI29" s="164"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="171"/>
       <c r="B30" s="69"/>
       <c r="C30" s="69"/>
@@ -14528,7 +14288,7 @@
       <c r="AH30" s="175"/>
       <c r="AI30" s="176"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="171"/>
       <c r="B31" s="69"/>
       <c r="C31" s="157"/>
@@ -14565,7 +14325,7 @@
       <c r="AH31" s="175"/>
       <c r="AI31" s="176"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="171"/>
       <c r="B32" s="179"/>
       <c r="C32" s="159"/>
@@ -14602,7 +14362,7 @@
       <c r="AH32" s="175"/>
       <c r="AI32" s="176"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="171"/>
       <c r="B33" s="179"/>
       <c r="C33" s="159"/>
@@ -14639,7 +14399,7 @@
       <c r="AH33" s="175"/>
       <c r="AI33" s="176"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="171"/>
       <c r="B34" s="179"/>
       <c r="C34" s="159"/>
@@ -14676,7 +14436,7 @@
       <c r="AH34" s="175"/>
       <c r="AI34" s="176"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="171"/>
       <c r="B35" s="179"/>
       <c r="C35" s="159"/>
@@ -14713,7 +14473,7 @@
       <c r="AH35" s="175"/>
       <c r="AI35" s="176"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="171"/>
       <c r="B36" s="171"/>
       <c r="C36" s="171"/>
@@ -14750,7 +14510,7 @@
       <c r="AH36" s="184"/>
       <c r="AI36" s="171"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="95"/>
       <c r="E37" s="95"/>
       <c r="F37" s="95"/>
@@ -14782,7 +14542,7 @@
       <c r="AH37" s="102"/>
       <c r="AI37" s="98"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="98"/>
       <c r="T38" s="98"/>
       <c r="U38" s="99"/>
@@ -14801,7 +14561,7 @@
       <c r="AH38" s="105"/>
       <c r="AI38" s="98"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="106"/>
       <c r="S39" s="98"/>
       <c r="T39" s="99"/>
@@ -14821,7 +14581,7 @@
       <c r="AH39" s="105"/>
       <c r="AI39" s="98"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="98"/>
       <c r="T40" s="98"/>
       <c r="U40" s="98"/>
@@ -14840,7 +14600,7 @@
       <c r="AH40" s="105"/>
       <c r="AI40" s="98"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="95"/>
       <c r="K41" s="95"/>
       <c r="L41" s="95"/>
@@ -14854,37 +14614,37 @@
       <c r="AH41" s="105"/>
       <c r="AI41" s="98"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="98"/>
       <c r="AF42" s="103"/>
       <c r="AG42" s="104"/>
       <c r="AH42" s="105"/>
       <c r="AI42" s="98"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="98"/>
       <c r="AF43" s="103"/>
       <c r="AG43" s="103"/>
       <c r="AH43" s="105"/>
       <c r="AI43" s="98"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="95"/>
       <c r="AF44" s="107"/>
       <c r="AG44" s="107"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="95"/>
       <c r="AG45" s="107"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="107"/>
       <c r="AG46" s="107"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="107"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="95"/>
       <c r="T48" s="95"/>
       <c r="V48" s="95"/>
@@ -14897,7 +14657,7 @@
       <c r="AC48" s="95"/>
       <c r="AD48" s="95"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="95"/>
       <c r="S49" s="95"/>
       <c r="T49" s="95"/>
@@ -14912,10 +14672,10 @@
       <c r="AD49" s="95"/>
       <c r="AG49" s="107"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="95"/>
     </row>
-    <row r="51" spans="1:34" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="95" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="64"/>
       <c r="B51" s="64"/>
       <c r="C51" s="64"/>
@@ -14948,7 +14708,7 @@
       <c r="AD51" s="64"/>
       <c r="AH51" s="106"/>
     </row>
-    <row r="52" spans="1:34" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="95" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -15021,12 +14781,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="133" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="133" customFormat="1">
       <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
@@ -15082,7 +14842,7 @@
       <c r="AH1" s="269"/>
       <c r="AI1" s="270"/>
     </row>
-    <row r="2" spans="1:35" s="133" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="133" customFormat="1">
       <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
@@ -15132,7 +14892,7 @@
       <c r="AH2" s="269"/>
       <c r="AI2" s="270"/>
     </row>
-    <row r="3" spans="1:35" s="133" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="133" customFormat="1">
       <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
@@ -15180,7 +14940,7 @@
       <c r="AH3" s="269"/>
       <c r="AI3" s="270"/>
     </row>
-    <row r="4" spans="1:35" s="133" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" s="133" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="138"/>
       <c r="AD4" s="146"/>
       <c r="AE4" s="146"/>
@@ -15189,17 +14949,17 @@
       <c r="AH4" s="51"/>
       <c r="AI4" s="51"/>
     </row>
-    <row r="5" spans="1:35" s="143" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="64" t="s">
         <v>272</v>
       </c>
       <c r="C5" s="82"/>
     </row>
-    <row r="6" spans="1:35" s="143" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="143" customFormat="1" ht="6" customHeight="1">
       <c r="A6" s="64"/>
       <c r="C6" s="82"/>
     </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="285" t="s">
         <v>39</v>
       </c>
@@ -15242,7 +15002,7 @@
       <c r="AH7" s="316"/>
       <c r="AI7" s="317"/>
     </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="285" t="s">
         <v>20</v>
       </c>
@@ -15287,7 +15047,7 @@
       <c r="AH8" s="307"/>
       <c r="AI8" s="308"/>
     </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="285" t="s">
         <v>40</v>
       </c>
@@ -15326,7 +15086,7 @@
       <c r="AH9" s="198"/>
       <c r="AI9" s="26"/>
     </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="108" t="s">
         <v>293</v>
@@ -15365,7 +15125,7 @@
       <c r="AH10" s="197"/>
       <c r="AI10" s="124"/>
     </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="197"/>
       <c r="C11" s="108"/>
@@ -15402,7 +15162,7 @@
       <c r="AH11" s="197"/>
       <c r="AI11" s="124"/>
     </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="197"/>
       <c r="C12" s="108"/>
@@ -15439,7 +15199,7 @@
       <c r="AH12" s="197"/>
       <c r="AI12" s="124"/>
     </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="52"/>
       <c r="B13" s="196"/>
       <c r="C13" s="17" t="s">
@@ -15478,7 +15238,7 @@
       <c r="AH13" s="196"/>
       <c r="AI13" s="36"/>
     </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="285" t="s">
         <v>23</v>
       </c>
@@ -15517,7 +15277,7 @@
       <c r="AH14" s="198"/>
       <c r="AI14" s="26"/>
     </row>
-    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="197" t="s">
         <v>275</v>
@@ -15556,7 +15316,7 @@
       <c r="AH15" s="197"/>
       <c r="AI15" s="124"/>
     </row>
-    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="197" t="s">
         <v>295</v>
@@ -15595,7 +15355,7 @@
       <c r="AH16" s="197"/>
       <c r="AI16" s="124"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="110"/>
       <c r="B17" s="196" t="s">
         <v>91</v>
@@ -15634,7 +15394,7 @@
       <c r="AH17" s="196"/>
       <c r="AI17" s="36"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="303" t="s">
         <v>19</v>
       </c>
@@ -15675,7 +15435,7 @@
       <c r="AH18" s="108"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="199"/>
       <c r="B19" s="200"/>
       <c r="C19" s="200"/>
@@ -15720,7 +15480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="202"/>
       <c r="B20" s="203"/>
       <c r="C20" s="203"/>
@@ -15757,7 +15517,7 @@
       <c r="AH20" s="108"/>
       <c r="AI20" s="124"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="285" t="s">
         <v>12</v>
       </c>
@@ -15802,7 +15562,7 @@
       <c r="AH21" s="307"/>
       <c r="AI21" s="308"/>
     </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="309" t="s">
         <v>18</v>
       </c>
@@ -15843,7 +15603,7 @@
       <c r="AH22" s="18"/>
       <c r="AI22" s="26"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="202"/>
       <c r="B23" s="203"/>
       <c r="C23" s="203"/>
@@ -15888,7 +15648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="300" t="s">
         <v>11</v>
       </c>
@@ -15933,7 +15693,7 @@
       <c r="AH24" s="21"/>
       <c r="AI24" s="22"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="296" t="s">
         <v>16</v>
       </c>
@@ -15982,7 +15742,7 @@
       <c r="AH25" s="198"/>
       <c r="AI25" s="26"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="46"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -16027,7 +15787,7 @@
       <c r="AH26" s="197"/>
       <c r="AI26" s="124"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
@@ -16072,7 +15832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="285" t="s">
         <v>22</v>
       </c>
@@ -16111,7 +15871,7 @@
       <c r="AH28" s="198"/>
       <c r="AI28" s="26"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="109"/>
       <c r="B29" s="197" t="s">
         <v>93</v>
@@ -16150,7 +15910,7 @@
       <c r="AH29" s="197"/>
       <c r="AI29" s="124"/>
     </row>
-    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="109"/>
       <c r="B30" s="197"/>
       <c r="C30" s="197" t="s">
@@ -16189,7 +15949,7 @@
       <c r="AH30" s="197"/>
       <c r="AI30" s="124"/>
     </row>
-    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="109"/>
       <c r="B31" s="197"/>
       <c r="C31" s="108" t="s">
@@ -16228,7 +15988,7 @@
       <c r="AH31" s="197"/>
       <c r="AI31" s="124"/>
     </row>
-    <row r="32" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="110"/>
       <c r="B32" s="196"/>
       <c r="C32" s="196"/>
@@ -16980,12 +16740,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="14" customFormat="1">
       <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
@@ -17041,7 +16801,7 @@
       <c r="AH1" s="269"/>
       <c r="AI1" s="270"/>
     </row>
-    <row r="2" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:47" s="14" customFormat="1">
       <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
@@ -17091,7 +16851,7 @@
       <c r="AH2" s="269"/>
       <c r="AI2" s="270"/>
     </row>
-    <row r="3" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" s="14" customFormat="1">
       <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
@@ -17139,7 +16899,7 @@
       <c r="AH3" s="269"/>
       <c r="AI3" s="270"/>
     </row>
-    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -17159,7 +16919,7 @@
       <c r="AI4" s="41"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="1:47" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:47" s="59" customFormat="1">
       <c r="A5" s="171" t="s">
         <v>78</v>
       </c>
@@ -17210,7 +16970,7 @@
       <c r="AT5" s="75"/>
       <c r="AU5" s="75"/>
     </row>
-    <row r="6" spans="1:47" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:47" s="59" customFormat="1">
       <c r="A6" s="64"/>
       <c r="B6" s="75"/>
       <c r="C6" s="12"/>
@@ -17259,7 +17019,7 @@
       <c r="AT6" s="75"/>
       <c r="AU6" s="75"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:47">
       <c r="A7" s="373" t="s">
         <v>288</v>
       </c>
@@ -17300,7 +17060,7 @@
       <c r="AH7" s="374"/>
       <c r="AI7" s="376"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:47">
       <c r="A8" s="88" t="s">
         <v>79</v>
       </c>
@@ -17355,7 +17115,7 @@
       </c>
       <c r="AI8" s="382"/>
     </row>
-    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="185">
         <v>1</v>
       </c>
@@ -17412,7 +17172,7 @@
       </c>
       <c r="AI9" s="335"/>
     </row>
-    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="185">
         <v>2</v>
       </c>
@@ -17472,7 +17232,7 @@
       <c r="AP10" s="113"/>
       <c r="AQ10" s="113"/>
     </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="185">
         <v>3</v>
       </c>
@@ -17532,7 +17292,7 @@
       <c r="AP11" s="112"/>
       <c r="AQ11" s="113"/>
     </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="185">
         <v>4</v>
       </c>
@@ -17588,7 +17348,7 @@
       <c r="AP12" s="112"/>
       <c r="AQ12" s="113"/>
     </row>
-    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="185">
         <v>5</v>
       </c>
@@ -17632,7 +17392,7 @@
       <c r="AP13" s="114"/>
       <c r="AQ13" s="113"/>
     </row>
-    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="185">
         <v>6</v>
       </c>
@@ -17671,7 +17431,7 @@
       <c r="AH14" s="318"/>
       <c r="AI14" s="319"/>
     </row>
-    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="186">
         <v>7</v>
       </c>
@@ -17710,7 +17470,7 @@
       <c r="AH15" s="318"/>
       <c r="AI15" s="319"/>
     </row>
-    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="186">
         <v>8</v>
       </c>
@@ -17749,7 +17509,7 @@
       <c r="AH16" s="318"/>
       <c r="AI16" s="319"/>
     </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="187">
         <v>9</v>
       </c>
@@ -17788,7 +17548,7 @@
       <c r="AH17" s="365"/>
       <c r="AI17" s="366"/>
     </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="351"/>
       <c r="B18" s="352"/>
       <c r="C18" s="352"/>
@@ -17826,7 +17586,7 @@
       <c r="AI18" s="76"/>
       <c r="AJ18" s="33"/>
     </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="342" t="s">
         <v>51</v>
       </c>
@@ -17873,7 +17633,7 @@
       <c r="AT19" s="75"/>
       <c r="AU19" s="75"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="118"/>
       <c r="C20" s="140" t="s">
@@ -17921,7 +17681,7 @@
       <c r="AT20" s="75"/>
       <c r="AU20" s="75"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="118"/>
       <c r="C21" s="134"/>
@@ -17971,7 +17731,7 @@
       <c r="AT21" s="75"/>
       <c r="AU21" s="75"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="118"/>
       <c r="C22" s="140"/>
@@ -18021,7 +17781,7 @@
       <c r="AT22" s="75"/>
       <c r="AU22" s="75"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="38"/>
       <c r="B23" s="118"/>
       <c r="C23" s="140"/>
@@ -18071,7 +17831,7 @@
       <c r="AT23" s="75"/>
       <c r="AU23" s="75"/>
     </row>
-    <row r="24" spans="1:47" s="123" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:47" s="123" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="128"/>
       <c r="B24" s="127"/>
       <c r="C24" s="140"/>
@@ -18119,7 +17879,7 @@
       <c r="AT24" s="126"/>
       <c r="AU24" s="126"/>
     </row>
-    <row r="25" spans="1:47" s="123" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:47" s="123" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="128"/>
       <c r="B25" s="127"/>
       <c r="C25" s="134"/>
@@ -18167,7 +17927,7 @@
       <c r="AT25" s="126"/>
       <c r="AU25" s="126"/>
     </row>
-    <row r="26" spans="1:47" s="123" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:47" s="123" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="128"/>
       <c r="B26" s="127"/>
       <c r="C26" s="134"/>
@@ -18217,7 +17977,7 @@
       <c r="AT26" s="126"/>
       <c r="AU26" s="126"/>
     </row>
-    <row r="27" spans="1:47" s="123" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:47" s="123" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="128"/>
       <c r="B27" s="127"/>
       <c r="C27" s="134"/>
@@ -18265,7 +18025,7 @@
       <c r="AT27" s="126"/>
       <c r="AU27" s="126"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="118"/>
       <c r="C28" s="140"/>
@@ -18313,7 +18073,7 @@
       <c r="AT28" s="75"/>
       <c r="AU28" s="75"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="38"/>
       <c r="B29" s="118"/>
       <c r="C29" s="140"/>
@@ -18363,7 +18123,7 @@
       <c r="AT29" s="75"/>
       <c r="AU29" s="75"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" s="118"/>
       <c r="C30" s="140"/>
@@ -18411,7 +18171,7 @@
       <c r="AT30" s="75"/>
       <c r="AU30" s="75"/>
     </row>
-    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="120"/>
       <c r="C31" s="133"/>
@@ -18457,7 +18217,7 @@
       <c r="AT31" s="75"/>
       <c r="AU31" s="75"/>
     </row>
-    <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="38"/>
       <c r="B32" s="120"/>
       <c r="C32" s="118"/>
@@ -18503,7 +18263,7 @@
       <c r="AT32" s="75"/>
       <c r="AU32" s="75"/>
     </row>
-    <row r="33" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="40"/>
       <c r="B33" s="121"/>
       <c r="C33" s="119"/>
@@ -18549,7 +18309,7 @@
       <c r="AT33" s="75"/>
       <c r="AU33" s="75"/>
     </row>
-    <row r="34" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:47" ht="22.5" customHeight="1">
       <c r="B34" s="115"/>
       <c r="C34" s="115"/>
       <c r="D34" s="115"/>
@@ -18590,7 +18350,7 @@
       <c r="AT34" s="75"/>
       <c r="AU34" s="75"/>
     </row>
-    <row r="35" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:47" ht="12">
       <c r="AN35" s="84"/>
       <c r="AO35" s="75"/>
       <c r="AP35" s="75"/>
@@ -18600,7 +18360,7 @@
       <c r="AT35" s="75"/>
       <c r="AU35" s="75"/>
     </row>
-    <row r="36" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:47" ht="12">
       <c r="AN36" s="84"/>
       <c r="AO36" s="75"/>
       <c r="AP36" s="75"/>
@@ -18610,7 +18370,7 @@
       <c r="AT36" s="75"/>
       <c r="AU36" s="75"/>
     </row>
-    <row r="37" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:47" ht="12">
       <c r="AN37" s="84"/>
       <c r="AO37" s="75"/>
       <c r="AP37" s="75"/>
@@ -18620,7 +18380,7 @@
       <c r="AT37" s="75"/>
       <c r="AU37" s="75"/>
     </row>
-    <row r="38" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:47" ht="12">
       <c r="AN38" s="84"/>
       <c r="AO38" s="75"/>
       <c r="AP38" s="75"/>
@@ -18630,7 +18390,7 @@
       <c r="AT38" s="75"/>
       <c r="AU38" s="75"/>
     </row>
-    <row r="39" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:47" ht="12">
       <c r="AN39" s="84"/>
       <c r="AO39" s="75"/>
       <c r="AP39" s="75"/>
@@ -18640,7 +18400,7 @@
       <c r="AT39" s="75"/>
       <c r="AU39" s="75"/>
     </row>
-    <row r="40" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:47" ht="12">
       <c r="AN40" s="84"/>
       <c r="AO40" s="75"/>
       <c r="AP40" s="75"/>
@@ -18650,7 +18410,7 @@
       <c r="AT40" s="75"/>
       <c r="AU40" s="75"/>
     </row>
-    <row r="41" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:47" ht="12">
       <c r="AN41" s="84"/>
       <c r="AO41" s="75"/>
       <c r="AP41" s="75"/>
@@ -18660,7 +18420,7 @@
       <c r="AT41" s="75"/>
       <c r="AU41" s="75"/>
     </row>
-    <row r="42" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:47" ht="12">
       <c r="AN42" s="84"/>
       <c r="AO42" s="75"/>
       <c r="AP42" s="75"/>
@@ -18670,7 +18430,7 @@
       <c r="AT42" s="75"/>
       <c r="AU42" s="75"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:47">
       <c r="AN43" s="75"/>
       <c r="AO43" s="75"/>
       <c r="AP43" s="75"/>
@@ -18680,7 +18440,7 @@
       <c r="AT43" s="75"/>
       <c r="AU43" s="75"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:47">
       <c r="AN44" s="75"/>
       <c r="AO44" s="75"/>
       <c r="AP44" s="75"/>
@@ -18690,7 +18450,7 @@
       <c r="AT44" s="75"/>
       <c r="AU44" s="75"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:47">
       <c r="AN45" s="75"/>
       <c r="AO45" s="75"/>
       <c r="AP45" s="75"/>
@@ -18848,12 +18608,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:121" s="144" customFormat="1" ht="11.25">
       <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
@@ -18909,7 +18669,7 @@
       <c r="AH1" s="269"/>
       <c r="AI1" s="270"/>
     </row>
-    <row r="2" spans="1:121" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:121" s="144" customFormat="1" ht="11.25">
       <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
@@ -18959,7 +18719,7 @@
       <c r="AH2" s="269"/>
       <c r="AI2" s="270"/>
     </row>
-    <row r="3" spans="1:121" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:121" s="144" customFormat="1" ht="11.25">
       <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
@@ -19007,8 +18767,8 @@
       <c r="AH3" s="269"/>
       <c r="AI3" s="270"/>
     </row>
-    <row r="4" spans="1:121" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:121" ht="11.25"/>
+    <row r="5" spans="1:121" ht="11.25">
       <c r="A5" s="168" t="s">
         <v>284</v>
       </c>
@@ -19016,13 +18776,13 @@
       <c r="C5" s="145"/>
       <c r="D5" s="145"/>
     </row>
-    <row r="6" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:121" ht="11.25">
       <c r="A6" s="145"/>
       <c r="B6" s="145"/>
       <c r="C6" s="145"/>
       <c r="D6" s="145"/>
     </row>
-    <row r="7" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:121" ht="15" customHeight="1">
       <c r="A7" s="188" t="s">
         <v>265</v>
       </c>
@@ -19146,7 +18906,7 @@
       <c r="DP7" s="147"/>
       <c r="DQ7" s="147"/>
     </row>
-    <row r="8" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:121" ht="15" customHeight="1">
       <c r="A8" s="190">
         <v>1</v>
       </c>
@@ -19185,6 +18945,7 @@
       </c>
       <c r="W8" s="403"/>
       <c r="X8" s="404">
+        <f>V8</f>
         <v>1</v>
       </c>
       <c r="Y8" s="405"/>
@@ -19274,7 +19035,7 @@
       <c r="DP8" s="147"/>
       <c r="DQ8" s="147"/>
     </row>
-    <row r="9" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:121" ht="15" customHeight="1">
       <c r="A9" s="190">
         <v>2</v>
       </c>
@@ -19313,6 +19074,7 @@
       </c>
       <c r="W9" s="403"/>
       <c r="X9" s="404">
+        <f>V8+X8</f>
         <v>2</v>
       </c>
       <c r="Y9" s="405"/>
@@ -19403,7 +19165,7 @@
       <c r="DP9" s="147"/>
       <c r="DQ9" s="147"/>
     </row>
-    <row r="10" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:121" ht="15" customHeight="1">
       <c r="A10" s="190">
         <v>3</v>
       </c>
@@ -19442,6 +19204,7 @@
       </c>
       <c r="W10" s="403"/>
       <c r="X10" s="404">
+        <f>V9+X9</f>
         <v>10</v>
       </c>
       <c r="Y10" s="405"/>
@@ -19532,7 +19295,7 @@
       <c r="DP10" s="147"/>
       <c r="DQ10" s="147"/>
     </row>
-    <row r="11" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:121" ht="15" customHeight="1">
       <c r="A11" s="190">
         <v>4</v>
       </c>
@@ -19571,6 +19334,7 @@
       </c>
       <c r="W11" s="403"/>
       <c r="X11" s="404">
+        <f>V10+X10</f>
         <v>20</v>
       </c>
       <c r="Y11" s="405"/>
@@ -19663,7 +19427,7 @@
       <c r="DP11" s="147"/>
       <c r="DQ11" s="147"/>
     </row>
-    <row r="12" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:121" ht="15" customHeight="1">
       <c r="A12" s="190">
         <v>5</v>
       </c>
@@ -19702,6 +19466,7 @@
       </c>
       <c r="W12" s="403"/>
       <c r="X12" s="404">
+        <f t="shared" ref="X12:X15" si="0">V11+X11</f>
         <v>30</v>
       </c>
       <c r="Y12" s="405"/>
@@ -19794,7 +19559,7 @@
       <c r="DP12" s="147"/>
       <c r="DQ12" s="147"/>
     </row>
-    <row r="13" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:121" ht="15" customHeight="1">
       <c r="A13" s="190">
         <v>6</v>
       </c>
@@ -19833,6 +19598,7 @@
       </c>
       <c r="W13" s="403"/>
       <c r="X13" s="404">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="Y13" s="405"/>
@@ -19925,7 +19691,7 @@
       <c r="DP13" s="147"/>
       <c r="DQ13" s="147"/>
     </row>
-    <row r="14" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:121" ht="15" customHeight="1">
       <c r="A14" s="190">
         <v>7</v>
       </c>
@@ -19964,6 +19730,7 @@
       </c>
       <c r="W14" s="403"/>
       <c r="X14" s="404">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="Y14" s="405"/>
@@ -20056,7 +19823,7 @@
       <c r="DP14" s="147"/>
       <c r="DQ14" s="147"/>
     </row>
-    <row r="15" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:121" ht="15" customHeight="1">
       <c r="A15" s="190">
         <v>8</v>
       </c>
@@ -20093,6 +19860,7 @@
       </c>
       <c r="W15" s="403"/>
       <c r="X15" s="404">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="Y15" s="405"/>
@@ -20334,14 +20102,14 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="30" width="4.83203125" style="75"/>
     <col min="31" max="31" width="4.83203125" style="75" customWidth="1"/>
     <col min="32" max="16384" width="4.83203125" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:121" s="66" customFormat="1" ht="11.25">
       <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
@@ -20390,14 +20158,14 @@
       <c r="AD1" s="225"/>
       <c r="AE1" s="225"/>
       <c r="AF1" s="226"/>
-      <c r="AG1" s="413">
+      <c r="AG1" s="415">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="414"/>
-      <c r="AI1" s="415"/>
-    </row>
-    <row r="2" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH1" s="416"/>
+      <c r="AI1" s="417"/>
+    </row>
+    <row r="2" spans="1:121" s="66" customFormat="1" ht="11.25">
       <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
@@ -20440,14 +20208,14 @@
       <c r="AD2" s="225"/>
       <c r="AE2" s="225"/>
       <c r="AF2" s="226"/>
-      <c r="AG2" s="413" t="str">
+      <c r="AG2" s="415" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="414"/>
-      <c r="AI2" s="415"/>
-    </row>
-    <row r="3" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH2" s="416"/>
+      <c r="AI2" s="417"/>
+    </row>
+    <row r="3" spans="1:121" s="66" customFormat="1" ht="11.25">
       <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
@@ -20488,15 +20256,15 @@
       <c r="AD3" s="225"/>
       <c r="AE3" s="225"/>
       <c r="AF3" s="226"/>
-      <c r="AG3" s="413" t="str">
+      <c r="AG3" s="415" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="414"/>
-      <c r="AI3" s="415"/>
-    </row>
-    <row r="4" spans="1:121" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH3" s="416"/>
+      <c r="AI3" s="417"/>
+    </row>
+    <row r="4" spans="1:121" ht="11.25"/>
+    <row r="5" spans="1:121" ht="11.25">
       <c r="A5" s="94" t="s">
         <v>285</v>
       </c>
@@ -20504,13 +20272,13 @@
       <c r="C5" s="92"/>
       <c r="D5" s="92"/>
     </row>
-    <row r="6" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:121" ht="11.25">
       <c r="A6" s="90"/>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
       <c r="D6" s="90"/>
     </row>
-    <row r="7" spans="1:121" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:121" ht="31.5" customHeight="1">
       <c r="A7" s="188" t="s">
         <v>266</v>
       </c>
@@ -20560,10 +20328,10 @@
         <v>83</v>
       </c>
       <c r="AC7" s="396"/>
-      <c r="AD7" s="443" t="s">
+      <c r="AD7" s="413" t="s">
         <v>84</v>
       </c>
-      <c r="AE7" s="444"/>
+      <c r="AE7" s="414"/>
       <c r="AF7" s="394" t="s">
         <v>62</v>
       </c>
@@ -20634,7 +20402,7 @@
       <c r="DP7" s="89"/>
       <c r="DQ7" s="89"/>
     </row>
-    <row r="8" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:121" ht="15" customHeight="1">
       <c r="A8" s="190">
         <v>1</v>
       </c>
@@ -20676,18 +20444,18 @@
         <v>1</v>
       </c>
       <c r="Y8" s="405"/>
-      <c r="Z8" s="416" t="s">
+      <c r="Z8" s="418" t="s">
         <v>200</v>
       </c>
-      <c r="AA8" s="417"/>
+      <c r="AA8" s="419"/>
       <c r="AB8" s="406" t="s">
         <v>290</v>
       </c>
       <c r="AC8" s="407"/>
-      <c r="AD8" s="416" t="s">
+      <c r="AD8" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE8" s="417"/>
+      <c r="AE8" s="419"/>
       <c r="AF8" s="406" t="s">
         <v>290</v>
       </c>
@@ -20762,7 +20530,7 @@
       <c r="DP8" s="89"/>
       <c r="DQ8" s="89"/>
     </row>
-    <row r="9" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:121" ht="15" customHeight="1">
       <c r="A9" s="190">
         <v>2</v>
       </c>
@@ -20813,10 +20581,10 @@
         <v>290</v>
       </c>
       <c r="AC9" s="407"/>
-      <c r="AD9" s="416" t="s">
+      <c r="AD9" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE9" s="417"/>
+      <c r="AE9" s="419"/>
       <c r="AF9" s="406" t="s">
         <v>291</v>
       </c>
@@ -20894,7 +20662,7 @@
       <c r="DP9" s="89"/>
       <c r="DQ9" s="89"/>
     </row>
-    <row r="10" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="190">
         <v>3</v>
       </c>
@@ -20945,10 +20713,10 @@
         <v>290</v>
       </c>
       <c r="AC10" s="407"/>
-      <c r="AD10" s="416" t="s">
+      <c r="AD10" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE10" s="417"/>
+      <c r="AE10" s="419"/>
       <c r="AF10" s="406" t="s">
         <v>291</v>
       </c>
@@ -21026,7 +20794,7 @@
       <c r="DP10" s="147"/>
       <c r="DQ10" s="147"/>
     </row>
-    <row r="11" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="190">
         <v>4</v>
       </c>
@@ -21077,10 +20845,10 @@
         <v>290</v>
       </c>
       <c r="AC11" s="407"/>
-      <c r="AD11" s="416" t="s">
+      <c r="AD11" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE11" s="417"/>
+      <c r="AE11" s="419"/>
       <c r="AF11" s="406" t="s">
         <v>291</v>
       </c>
@@ -21156,7 +20924,7 @@
       <c r="DP11" s="147"/>
       <c r="DQ11" s="147"/>
     </row>
-    <row r="12" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="190">
         <v>5</v>
       </c>
@@ -21207,10 +20975,10 @@
         <v>290</v>
       </c>
       <c r="AC12" s="407"/>
-      <c r="AD12" s="416" t="s">
+      <c r="AD12" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE12" s="417"/>
+      <c r="AE12" s="419"/>
       <c r="AF12" s="406" t="s">
         <v>290</v>
       </c>
@@ -21286,7 +21054,7 @@
       <c r="DP12" s="147"/>
       <c r="DQ12" s="147"/>
     </row>
-    <row r="13" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="190">
         <v>6</v>
       </c>
@@ -21337,10 +21105,10 @@
         <v>290</v>
       </c>
       <c r="AC13" s="407"/>
-      <c r="AD13" s="416" t="s">
+      <c r="AD13" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE13" s="417"/>
+      <c r="AE13" s="419"/>
       <c r="AF13" s="406" t="s">
         <v>290</v>
       </c>
@@ -21416,7 +21184,7 @@
       <c r="DP13" s="147"/>
       <c r="DQ13" s="147"/>
     </row>
-    <row r="14" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="190">
         <v>7</v>
       </c>
@@ -21467,10 +21235,10 @@
         <v>290</v>
       </c>
       <c r="AC14" s="407"/>
-      <c r="AD14" s="416" t="s">
+      <c r="AD14" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE14" s="417"/>
+      <c r="AE14" s="419"/>
       <c r="AF14" s="406" t="s">
         <v>290</v>
       </c>
@@ -21546,7 +21314,7 @@
       <c r="DP14" s="147"/>
       <c r="DQ14" s="147"/>
     </row>
-    <row r="15" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="190">
         <v>8</v>
       </c>
@@ -21597,10 +21365,10 @@
         <v>290</v>
       </c>
       <c r="AC15" s="407"/>
-      <c r="AD15" s="416" t="s">
+      <c r="AD15" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE15" s="417"/>
+      <c r="AE15" s="419"/>
       <c r="AF15" s="406" t="s">
         <v>206</v>
       </c>
@@ -21676,7 +21444,7 @@
       <c r="DP15" s="147"/>
       <c r="DQ15" s="147"/>
     </row>
-    <row r="16" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="190">
         <v>9</v>
       </c>
@@ -21727,10 +21495,10 @@
         <v>290</v>
       </c>
       <c r="AC16" s="407"/>
-      <c r="AD16" s="416" t="s">
+      <c r="AD16" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE16" s="417"/>
+      <c r="AE16" s="419"/>
       <c r="AF16" s="406" t="s">
         <v>290</v>
       </c>
@@ -21808,7 +21576,7 @@
       <c r="DP16" s="147"/>
       <c r="DQ16" s="147"/>
     </row>
-    <row r="17" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="190">
         <v>10</v>
       </c>
@@ -21859,10 +21627,10 @@
         <v>290</v>
       </c>
       <c r="AC17" s="407"/>
-      <c r="AD17" s="416" t="s">
+      <c r="AD17" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE17" s="417"/>
+      <c r="AE17" s="419"/>
       <c r="AF17" s="406" t="s">
         <v>207</v>
       </c>
@@ -21938,11 +21706,11 @@
       <c r="DP17" s="147"/>
       <c r="DQ17" s="147"/>
     </row>
-    <row r="18" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="190">
         <v>11</v>
       </c>
-      <c r="B18" s="421" t="s">
+      <c r="B18" s="423" t="s">
         <v>211</v>
       </c>
       <c r="C18" s="397" t="s">
@@ -21991,10 +21759,10 @@
         <v>290</v>
       </c>
       <c r="AC18" s="407"/>
-      <c r="AD18" s="416" t="s">
+      <c r="AD18" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE18" s="417"/>
+      <c r="AE18" s="419"/>
       <c r="AF18" s="406" t="s">
         <v>290</v>
       </c>
@@ -22070,11 +21838,11 @@
       <c r="DP18" s="147"/>
       <c r="DQ18" s="147"/>
     </row>
-    <row r="19" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="190">
         <v>12</v>
       </c>
-      <c r="B19" s="422"/>
+      <c r="B19" s="424"/>
       <c r="C19" s="397" t="s">
         <v>220</v>
       </c>
@@ -22121,10 +21889,10 @@
         <v>290</v>
       </c>
       <c r="AC19" s="407"/>
-      <c r="AD19" s="416" t="s">
+      <c r="AD19" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE19" s="417"/>
+      <c r="AE19" s="419"/>
       <c r="AF19" s="406" t="s">
         <v>290</v>
       </c>
@@ -22200,11 +21968,11 @@
       <c r="DP19" s="147"/>
       <c r="DQ19" s="147"/>
     </row>
-    <row r="20" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="190">
         <v>13</v>
       </c>
-      <c r="B20" s="423"/>
+      <c r="B20" s="425"/>
       <c r="C20" s="397" t="s">
         <v>221</v>
       </c>
@@ -22251,10 +22019,10 @@
         <v>290</v>
       </c>
       <c r="AC20" s="407"/>
-      <c r="AD20" s="416" t="s">
+      <c r="AD20" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE20" s="417"/>
+      <c r="AE20" s="419"/>
       <c r="AF20" s="406" t="s">
         <v>291</v>
       </c>
@@ -22330,11 +22098,11 @@
       <c r="DP20" s="147"/>
       <c r="DQ20" s="147"/>
     </row>
-    <row r="21" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="190">
         <v>14</v>
       </c>
-      <c r="B21" s="421" t="s">
+      <c r="B21" s="423" t="s">
         <v>212</v>
       </c>
       <c r="C21" s="397" t="s">
@@ -22383,10 +22151,10 @@
         <v>290</v>
       </c>
       <c r="AC21" s="407"/>
-      <c r="AD21" s="416" t="s">
+      <c r="AD21" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE21" s="417"/>
+      <c r="AE21" s="419"/>
       <c r="AF21" s="406" t="s">
         <v>290</v>
       </c>
@@ -22462,11 +22230,11 @@
       <c r="DP21" s="147"/>
       <c r="DQ21" s="147"/>
     </row>
-    <row r="22" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="190">
         <v>15</v>
       </c>
-      <c r="B22" s="422"/>
+      <c r="B22" s="424"/>
       <c r="C22" s="397" t="s">
         <v>220</v>
       </c>
@@ -22513,10 +22281,10 @@
         <v>290</v>
       </c>
       <c r="AC22" s="407"/>
-      <c r="AD22" s="416" t="s">
+      <c r="AD22" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE22" s="417"/>
+      <c r="AE22" s="419"/>
       <c r="AF22" s="406" t="s">
         <v>291</v>
       </c>
@@ -22592,11 +22360,11 @@
       <c r="DP22" s="147"/>
       <c r="DQ22" s="147"/>
     </row>
-    <row r="23" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:121" s="143" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="190">
         <v>16</v>
       </c>
-      <c r="B23" s="423"/>
+      <c r="B23" s="425"/>
       <c r="C23" s="397" t="s">
         <v>221</v>
       </c>
@@ -22643,10 +22411,10 @@
         <v>290</v>
       </c>
       <c r="AC23" s="407"/>
-      <c r="AD23" s="416" t="s">
+      <c r="AD23" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE23" s="417"/>
+      <c r="AE23" s="419"/>
       <c r="AF23" s="406" t="s">
         <v>291</v>
       </c>
@@ -22722,7 +22490,7 @@
       <c r="DP23" s="147"/>
       <c r="DQ23" s="147"/>
     </row>
-    <row r="24" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="190">
         <v>17</v>
       </c>
@@ -22773,10 +22541,10 @@
         <v>290</v>
       </c>
       <c r="AC24" s="407"/>
-      <c r="AD24" s="416" t="s">
+      <c r="AD24" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE24" s="417"/>
+      <c r="AE24" s="419"/>
       <c r="AF24" s="406" t="s">
         <v>207</v>
       </c>
@@ -22852,7 +22620,7 @@
       <c r="DP24" s="147"/>
       <c r="DQ24" s="147"/>
     </row>
-    <row r="25" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="190">
         <v>18</v>
       </c>
@@ -22903,10 +22671,10 @@
         <v>290</v>
       </c>
       <c r="AC25" s="407"/>
-      <c r="AD25" s="416" t="s">
+      <c r="AD25" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE25" s="417"/>
+      <c r="AE25" s="419"/>
       <c r="AF25" s="406" t="s">
         <v>207</v>
       </c>
@@ -22984,11 +22752,11 @@
       <c r="DP25" s="147"/>
       <c r="DQ25" s="147"/>
     </row>
-    <row r="26" spans="1:121" s="143" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:121" s="143" customFormat="1" ht="26.25" customHeight="1">
       <c r="A26" s="190">
         <v>19</v>
       </c>
-      <c r="B26" s="421" t="s">
+      <c r="B26" s="423" t="s">
         <v>215</v>
       </c>
       <c r="C26" s="397" t="s">
@@ -23037,10 +22805,10 @@
         <v>290</v>
       </c>
       <c r="AC26" s="407"/>
-      <c r="AD26" s="416" t="s">
+      <c r="AD26" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE26" s="417"/>
+      <c r="AE26" s="419"/>
       <c r="AF26" s="406" t="s">
         <v>291</v>
       </c>
@@ -23116,11 +22884,11 @@
       <c r="DP26" s="147"/>
       <c r="DQ26" s="147"/>
     </row>
-    <row r="27" spans="1:121" s="143" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:121" s="143" customFormat="1" ht="26.25" customHeight="1">
       <c r="A27" s="190">
         <v>20</v>
       </c>
-      <c r="B27" s="422"/>
+      <c r="B27" s="424"/>
       <c r="C27" s="397" t="s">
         <v>220</v>
       </c>
@@ -23167,10 +22935,10 @@
         <v>290</v>
       </c>
       <c r="AC27" s="407"/>
-      <c r="AD27" s="416" t="s">
+      <c r="AD27" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE27" s="417"/>
+      <c r="AE27" s="419"/>
       <c r="AF27" s="406" t="s">
         <v>290</v>
       </c>
@@ -23246,11 +23014,11 @@
       <c r="DP27" s="147"/>
       <c r="DQ27" s="147"/>
     </row>
-    <row r="28" spans="1:121" s="143" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:121" s="143" customFormat="1" ht="26.25" customHeight="1">
       <c r="A28" s="190">
         <v>21</v>
       </c>
-      <c r="B28" s="423"/>
+      <c r="B28" s="425"/>
       <c r="C28" s="397" t="s">
         <v>221</v>
       </c>
@@ -23297,10 +23065,10 @@
         <v>290</v>
       </c>
       <c r="AC28" s="407"/>
-      <c r="AD28" s="416" t="s">
+      <c r="AD28" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE28" s="417"/>
+      <c r="AE28" s="419"/>
       <c r="AF28" s="406" t="s">
         <v>290</v>
       </c>
@@ -23376,11 +23144,11 @@
       <c r="DP28" s="147"/>
       <c r="DQ28" s="147"/>
     </row>
-    <row r="29" spans="1:121" s="143" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:121" s="143" customFormat="1" ht="24.75" customHeight="1">
       <c r="A29" s="190">
         <v>22</v>
       </c>
-      <c r="B29" s="421" t="s">
+      <c r="B29" s="423" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="397" t="s">
@@ -23429,10 +23197,10 @@
         <v>290</v>
       </c>
       <c r="AC29" s="407"/>
-      <c r="AD29" s="416" t="s">
+      <c r="AD29" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE29" s="417"/>
+      <c r="AE29" s="419"/>
       <c r="AF29" s="406" t="s">
         <v>290</v>
       </c>
@@ -23508,11 +23276,11 @@
       <c r="DP29" s="147"/>
       <c r="DQ29" s="147"/>
     </row>
-    <row r="30" spans="1:121" s="143" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:121" s="143" customFormat="1" ht="24.75" customHeight="1">
       <c r="A30" s="190">
         <v>23</v>
       </c>
-      <c r="B30" s="422"/>
+      <c r="B30" s="424"/>
       <c r="C30" s="397" t="s">
         <v>220</v>
       </c>
@@ -23559,10 +23327,10 @@
         <v>290</v>
       </c>
       <c r="AC30" s="407"/>
-      <c r="AD30" s="416" t="s">
+      <c r="AD30" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE30" s="417"/>
+      <c r="AE30" s="419"/>
       <c r="AF30" s="406" t="s">
         <v>290</v>
       </c>
@@ -23638,11 +23406,11 @@
       <c r="DP30" s="147"/>
       <c r="DQ30" s="147"/>
     </row>
-    <row r="31" spans="1:121" s="143" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:121" s="143" customFormat="1" ht="24.75" customHeight="1">
       <c r="A31" s="190">
         <v>24</v>
       </c>
-      <c r="B31" s="423"/>
+      <c r="B31" s="425"/>
       <c r="C31" s="397" t="s">
         <v>221</v>
       </c>
@@ -23689,10 +23457,10 @@
         <v>290</v>
       </c>
       <c r="AC31" s="407"/>
-      <c r="AD31" s="416" t="s">
+      <c r="AD31" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE31" s="417"/>
+      <c r="AE31" s="419"/>
       <c r="AF31" s="406" t="s">
         <v>290</v>
       </c>
@@ -23768,7 +23536,7 @@
       <c r="DP31" s="147"/>
       <c r="DQ31" s="147"/>
     </row>
-    <row r="32" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="190">
         <v>25</v>
       </c>
@@ -23819,10 +23587,10 @@
         <v>290</v>
       </c>
       <c r="AC32" s="407"/>
-      <c r="AD32" s="416" t="s">
+      <c r="AD32" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE32" s="417"/>
+      <c r="AE32" s="419"/>
       <c r="AF32" s="406" t="s">
         <v>207</v>
       </c>
@@ -23898,7 +23666,7 @@
       <c r="DP32" s="147"/>
       <c r="DQ32" s="147"/>
     </row>
-    <row r="33" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="190">
         <v>26</v>
       </c>
@@ -23949,10 +23717,10 @@
         <v>290</v>
       </c>
       <c r="AC33" s="407"/>
-      <c r="AD33" s="416" t="s">
+      <c r="AD33" s="418" t="s">
         <v>210</v>
       </c>
-      <c r="AE33" s="417"/>
+      <c r="AE33" s="419"/>
       <c r="AF33" s="406" t="s">
         <v>290</v>
       </c>
@@ -24028,7 +23796,7 @@
       <c r="DP33" s="147"/>
       <c r="DQ33" s="147"/>
     </row>
-    <row r="34" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="190">
         <v>27</v>
       </c>
@@ -24079,15 +23847,15 @@
         <v>290</v>
       </c>
       <c r="AC34" s="407"/>
-      <c r="AD34" s="416" t="s">
+      <c r="AD34" s="418" t="s">
         <v>290</v>
       </c>
-      <c r="AE34" s="417"/>
-      <c r="AF34" s="418" t="s">
+      <c r="AE34" s="419"/>
+      <c r="AF34" s="420" t="s">
         <v>208</v>
       </c>
-      <c r="AG34" s="419"/>
-      <c r="AH34" s="420"/>
+      <c r="AG34" s="421"/>
+      <c r="AH34" s="422"/>
       <c r="AI34" s="397"/>
       <c r="AJ34" s="398"/>
       <c r="AK34" s="398"/>
@@ -24158,7 +23926,7 @@
       <c r="DP34" s="147"/>
       <c r="DQ34" s="147"/>
     </row>
-    <row r="35" spans="1:121" s="143" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:121" s="143" customFormat="1" ht="60.75" customHeight="1">
       <c r="A35" s="190">
         <v>28</v>
       </c>
@@ -24209,10 +23977,10 @@
         <v>290</v>
       </c>
       <c r="AC35" s="407"/>
-      <c r="AD35" s="416" t="s">
+      <c r="AD35" s="418" t="s">
         <v>291</v>
       </c>
-      <c r="AE35" s="417"/>
+      <c r="AE35" s="419"/>
       <c r="AF35" s="406" t="s">
         <v>209</v>
       </c>
@@ -24288,7 +24056,7 @@
       <c r="DP35" s="147"/>
       <c r="DQ35" s="147"/>
     </row>
-    <row r="36" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="190">
         <v>29</v>
       </c>
@@ -24339,10 +24107,10 @@
         <v>290</v>
       </c>
       <c r="AC36" s="407"/>
-      <c r="AD36" s="416" t="s">
+      <c r="AD36" s="418" t="s">
         <v>291</v>
       </c>
-      <c r="AE36" s="417"/>
+      <c r="AE36" s="419"/>
       <c r="AF36" s="406" t="s">
         <v>290</v>
       </c>
@@ -24418,7 +24186,7 @@
       <c r="DP36" s="147"/>
       <c r="DQ36" s="147"/>
     </row>
-    <row r="37" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:121" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="190">
         <v>30</v>
       </c>
@@ -24455,6 +24223,7 @@
       </c>
       <c r="W37" s="403"/>
       <c r="X37" s="404">
+        <f t="shared" ref="X37" si="1">X36+V36</f>
         <v>417</v>
       </c>
       <c r="Y37" s="405"/>
@@ -24466,10 +24235,10 @@
         <v>290</v>
       </c>
       <c r="AC37" s="407"/>
-      <c r="AD37" s="416" t="s">
+      <c r="AD37" s="418" t="s">
         <v>291</v>
       </c>
-      <c r="AE37" s="417"/>
+      <c r="AE37" s="419"/>
       <c r="AF37" s="406" t="s">
         <v>291</v>
       </c>
@@ -24943,12 +24712,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:121" s="144" customFormat="1" ht="11.25">
       <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
@@ -24997,14 +24766,14 @@
       <c r="AD1" s="225"/>
       <c r="AE1" s="225"/>
       <c r="AF1" s="226"/>
-      <c r="AG1" s="413">
+      <c r="AG1" s="415">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="414"/>
-      <c r="AI1" s="415"/>
-    </row>
-    <row r="2" spans="1:121" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH1" s="416"/>
+      <c r="AI1" s="417"/>
+    </row>
+    <row r="2" spans="1:121" s="144" customFormat="1" ht="11.25">
       <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
@@ -25047,14 +24816,14 @@
       <c r="AD2" s="225"/>
       <c r="AE2" s="225"/>
       <c r="AF2" s="226"/>
-      <c r="AG2" s="413" t="str">
+      <c r="AG2" s="415" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="414"/>
-      <c r="AI2" s="415"/>
-    </row>
-    <row r="3" spans="1:121" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH2" s="416"/>
+      <c r="AI2" s="417"/>
+    </row>
+    <row r="3" spans="1:121" s="144" customFormat="1" ht="11.25">
       <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
@@ -25095,15 +24864,15 @@
       <c r="AD3" s="225"/>
       <c r="AE3" s="225"/>
       <c r="AF3" s="226"/>
-      <c r="AG3" s="413" t="str">
+      <c r="AG3" s="415" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="414"/>
-      <c r="AI3" s="415"/>
-    </row>
-    <row r="4" spans="1:121" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH3" s="416"/>
+      <c r="AI3" s="417"/>
+    </row>
+    <row r="4" spans="1:121" ht="11.25"/>
+    <row r="5" spans="1:121" ht="11.25">
       <c r="A5" s="94" t="s">
         <v>287</v>
       </c>
@@ -25111,13 +24880,13 @@
       <c r="C5" s="145"/>
       <c r="D5" s="145"/>
     </row>
-    <row r="6" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:121" ht="11.25">
       <c r="A6" s="145"/>
       <c r="B6" s="145"/>
       <c r="C6" s="145"/>
       <c r="D6" s="145"/>
     </row>
-    <row r="7" spans="1:121" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:121" ht="39" customHeight="1">
       <c r="A7" s="193" t="s">
         <v>261</v>
       </c>
@@ -25167,10 +24936,10 @@
         <v>83</v>
       </c>
       <c r="AC7" s="396"/>
-      <c r="AD7" s="443" t="s">
+      <c r="AD7" s="413" t="s">
         <v>84</v>
       </c>
-      <c r="AE7" s="444"/>
+      <c r="AE7" s="414"/>
       <c r="AF7" s="394" t="s">
         <v>62</v>
       </c>
@@ -25241,7 +25010,7 @@
       <c r="DP7" s="150"/>
       <c r="DQ7" s="150"/>
     </row>
-    <row r="8" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:121" ht="15" customHeight="1">
       <c r="A8" s="190">
         <v>1</v>
       </c>
@@ -25369,7 +25138,7 @@
       <c r="DP8" s="150"/>
       <c r="DQ8" s="150"/>
     </row>
-    <row r="9" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:121" ht="15" customHeight="1">
       <c r="A9" s="190">
         <v>2</v>
       </c>
@@ -25406,6 +25175,7 @@
       </c>
       <c r="W9" s="403"/>
       <c r="X9" s="404">
+        <f>V8+X8</f>
         <v>2</v>
       </c>
       <c r="Y9" s="405"/>
@@ -25581,12 +25351,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:121" s="144" customFormat="1" ht="11.25">
       <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
@@ -25635,14 +25405,14 @@
       <c r="AD1" s="225"/>
       <c r="AE1" s="225"/>
       <c r="AF1" s="226"/>
-      <c r="AG1" s="413">
+      <c r="AG1" s="415">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="414"/>
-      <c r="AI1" s="415"/>
-    </row>
-    <row r="2" spans="1:121" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH1" s="416"/>
+      <c r="AI1" s="417"/>
+    </row>
+    <row r="2" spans="1:121" s="144" customFormat="1" ht="11.25">
       <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
@@ -25685,14 +25455,14 @@
       <c r="AD2" s="225"/>
       <c r="AE2" s="225"/>
       <c r="AF2" s="226"/>
-      <c r="AG2" s="413" t="str">
+      <c r="AG2" s="415" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="414"/>
-      <c r="AI2" s="415"/>
-    </row>
-    <row r="3" spans="1:121" s="144" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH2" s="416"/>
+      <c r="AI2" s="417"/>
+    </row>
+    <row r="3" spans="1:121" s="144" customFormat="1" ht="11.25">
       <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
@@ -25733,15 +25503,15 @@
       <c r="AD3" s="225"/>
       <c r="AE3" s="225"/>
       <c r="AF3" s="226"/>
-      <c r="AG3" s="413" t="str">
+      <c r="AG3" s="415" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="414"/>
-      <c r="AI3" s="415"/>
-    </row>
-    <row r="4" spans="1:121" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH3" s="416"/>
+      <c r="AI3" s="417"/>
+    </row>
+    <row r="4" spans="1:121" ht="11.25"/>
+    <row r="5" spans="1:121" ht="11.25">
       <c r="A5" s="94" t="s">
         <v>286</v>
       </c>
@@ -25749,13 +25519,13 @@
       <c r="C5" s="145"/>
       <c r="D5" s="145"/>
     </row>
-    <row r="6" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:121" ht="11.25">
       <c r="A6" s="145"/>
       <c r="B6" s="145"/>
       <c r="C6" s="145"/>
       <c r="D6" s="145"/>
     </row>
-    <row r="7" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:121" ht="15" customHeight="1">
       <c r="A7" s="194" t="s">
         <v>261</v>
       </c>
@@ -25879,7 +25649,7 @@
       <c r="DP7" s="150"/>
       <c r="DQ7" s="150"/>
     </row>
-    <row r="8" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:121" ht="15" customHeight="1">
       <c r="A8" s="190">
         <v>1</v>
       </c>
@@ -26007,7 +25777,7 @@
       <c r="DP8" s="150"/>
       <c r="DQ8" s="150"/>
     </row>
-    <row r="9" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:121" ht="15" customHeight="1">
       <c r="A9" s="190">
         <v>2</v>
       </c>
@@ -26044,6 +25814,7 @@
       </c>
       <c r="W9" s="403"/>
       <c r="X9" s="404">
+        <f>V8+X8</f>
         <v>2</v>
       </c>
       <c r="Y9" s="405"/>
